--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>batch 0, batch accuracy 0.200 validation accuracy 0.109</t>
   </si>
@@ -263,6 +263,33 @@
   </si>
   <si>
     <t>tf_conf30</t>
+  </si>
+  <si>
+    <t>tf_conf31</t>
+  </si>
+  <si>
+    <t>tf_conf32</t>
+  </si>
+  <si>
+    <t>tf_conf33</t>
+  </si>
+  <si>
+    <t>tf_conf34</t>
+  </si>
+  <si>
+    <t>tf_conf35</t>
+  </si>
+  <si>
+    <t>tf_conf36</t>
+  </si>
+  <si>
+    <t>tf_conf37</t>
+  </si>
+  <si>
+    <t>tf_conf38</t>
+  </si>
+  <si>
+    <t>tf_conf39</t>
   </si>
 </sst>
 </file>
@@ -293,7 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,9 +337,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -893,10 +921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,40 +1117,109 @@
       <c r="A24" t="s">
         <v>71</v>
       </c>
+      <c r="B24">
+        <v>0.8639</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.86650000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>73</v>
       </c>
+      <c r="B26">
+        <v>0.86070000000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
+      <c r="B27">
+        <v>0.85650000000000004</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>75</v>
       </c>
+      <c r="B28">
+        <v>0.86470000000000002</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
+      <c r="B29">
+        <v>0.84389999999999998</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
+      <c r="B30">
+        <v>0.85699999999999998</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>78</v>
+      </c>
+      <c r="B31">
+        <v>0.86260000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
